--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf1-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf1-Cd44.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.004760666666666</v>
+        <v>0.7304773333333333</v>
       </c>
       <c r="H2">
-        <v>6.014282</v>
+        <v>2.191432</v>
       </c>
       <c r="I2">
-        <v>0.1200698528618338</v>
+        <v>0.03163269997405359</v>
       </c>
       <c r="J2">
-        <v>0.1200698528618338</v>
+        <v>0.03163269997405359</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>261.380203</v>
+        <v>7.487621999999999</v>
       </c>
       <c r="N2">
-        <v>784.140609</v>
+        <v>22.462866</v>
       </c>
       <c r="O2">
-        <v>0.6968677182772199</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="P2">
-        <v>0.69686771827722</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="Q2">
-        <v>524.0047500197486</v>
+        <v>5.469538151567999</v>
       </c>
       <c r="R2">
-        <v>4716.042750177738</v>
+        <v>49.225843364112</v>
       </c>
       <c r="S2">
-        <v>0.08367280439770763</v>
+        <v>0.004379215735023403</v>
       </c>
       <c r="T2">
-        <v>0.08367280439770765</v>
+        <v>0.004379215735023403</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.004760666666666</v>
+        <v>0.7304773333333333</v>
       </c>
       <c r="H3">
-        <v>6.014282</v>
+        <v>2.191432</v>
       </c>
       <c r="I3">
-        <v>0.1200698528618338</v>
+        <v>0.03163269997405359</v>
       </c>
       <c r="J3">
-        <v>0.1200698528618338</v>
+        <v>0.03163269997405359</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>95.998284</v>
       </c>
       <c r="O3">
-        <v>0.08531391482826334</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="P3">
-        <v>0.08531391482826335</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="Q3">
-        <v>64.15119461023198</v>
+        <v>23.374856833632</v>
       </c>
       <c r="R3">
-        <v>577.360751492088</v>
+        <v>210.373711502688</v>
       </c>
       <c r="S3">
-        <v>0.0102436292004966</v>
+        <v>0.01871520739286097</v>
       </c>
       <c r="T3">
-        <v>0.0102436292004966</v>
+        <v>0.01871520739286097</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2.004760666666666</v>
+        <v>0.7304773333333333</v>
       </c>
       <c r="H4">
-        <v>6.014282</v>
+        <v>2.191432</v>
       </c>
       <c r="I4">
-        <v>0.1200698528618338</v>
+        <v>0.03163269997405359</v>
       </c>
       <c r="J4">
-        <v>0.1200698528618338</v>
+        <v>0.03163269997405359</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>81.69901900000001</v>
+        <v>14.59882166666667</v>
       </c>
       <c r="N4">
-        <v>245.097057</v>
+        <v>43.796465</v>
       </c>
       <c r="O4">
-        <v>0.2178183668945166</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="P4">
-        <v>0.2178183668945167</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="Q4">
-        <v>163.7869797964527</v>
+        <v>10.66410832087555</v>
       </c>
       <c r="R4">
-        <v>1474.082818168074</v>
+        <v>95.97697488787999</v>
       </c>
       <c r="S4">
-        <v>0.02615341926362954</v>
+        <v>0.008538276846169217</v>
       </c>
       <c r="T4">
-        <v>0.02615341926362954</v>
+        <v>0.008538276846169217</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>28.228965</v>
       </c>
       <c r="I5">
-        <v>0.5635664696121425</v>
+        <v>0.4074771110502447</v>
       </c>
       <c r="J5">
-        <v>0.5635664696121424</v>
+        <v>0.4074771110502448</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>261.380203</v>
+        <v>7.487621999999999</v>
       </c>
       <c r="N5">
-        <v>784.140609</v>
+        <v>22.462866</v>
       </c>
       <c r="O5">
-        <v>0.6968677182772199</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="P5">
-        <v>0.69686771827722</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="Q5">
-        <v>2459.497534059965</v>
+        <v>70.45593979040999</v>
       </c>
       <c r="R5">
-        <v>22135.47780653969</v>
+        <v>634.10345811369</v>
       </c>
       <c r="S5">
-        <v>0.392731279776162</v>
+        <v>0.056410934818614</v>
       </c>
       <c r="T5">
-        <v>0.392731279776162</v>
+        <v>0.05641093481861401</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>28.228965</v>
       </c>
       <c r="I6">
-        <v>0.5635664696121425</v>
+        <v>0.4074771110502447</v>
       </c>
       <c r="J6">
-        <v>0.5635664696121424</v>
+        <v>0.4074771110502448</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>95.998284</v>
       </c>
       <c r="O6">
-        <v>0.08531391482826334</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="P6">
-        <v>0.08531391482826335</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="Q6">
         <v>301.10357767734</v>
@@ -818,10 +818,10 @@
         <v>2709.93219909606</v>
       </c>
       <c r="S6">
-        <v>0.04808006178855539</v>
+        <v>0.2410802317666319</v>
       </c>
       <c r="T6">
-        <v>0.04808006178855538</v>
+        <v>0.2410802317666319</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>28.228965</v>
       </c>
       <c r="I7">
-        <v>0.5635664696121425</v>
+        <v>0.4074771110502447</v>
       </c>
       <c r="J7">
-        <v>0.5635664696121424</v>
+        <v>0.4074771110502448</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>81.69901900000001</v>
+        <v>14.59882166666667</v>
       </c>
       <c r="N7">
-        <v>245.097057</v>
+        <v>43.796465</v>
       </c>
       <c r="O7">
-        <v>0.2178183668945166</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="P7">
-        <v>0.2178183668945167</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="Q7">
-        <v>768.7595826284449</v>
+        <v>137.3698752898583</v>
       </c>
       <c r="R7">
-        <v>6918.836243656005</v>
+        <v>1236.328877608725</v>
       </c>
       <c r="S7">
-        <v>0.1227551280474251</v>
+        <v>0.1099859444649988</v>
       </c>
       <c r="T7">
-        <v>0.1227551280474251</v>
+        <v>0.1099859444649988</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.282204</v>
+        <v>12.95234266666667</v>
       </c>
       <c r="H8">
-        <v>15.846612</v>
+        <v>38.857028</v>
       </c>
       <c r="I8">
-        <v>0.3163636775260238</v>
+        <v>0.5608901889757016</v>
       </c>
       <c r="J8">
-        <v>0.3163636775260238</v>
+        <v>0.5608901889757018</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>261.380203</v>
+        <v>7.487621999999999</v>
       </c>
       <c r="N8">
-        <v>784.140609</v>
+        <v>22.462866</v>
       </c>
       <c r="O8">
-        <v>0.6968677182772199</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="P8">
-        <v>0.69686771827722</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="Q8">
-        <v>1380.663553807412</v>
+        <v>96.98224590247199</v>
       </c>
       <c r="R8">
-        <v>12425.97198426671</v>
+        <v>872.840213122248</v>
       </c>
       <c r="S8">
-        <v>0.2204636341033504</v>
+        <v>0.07764936736975865</v>
       </c>
       <c r="T8">
-        <v>0.2204636341033504</v>
+        <v>0.07764936736975867</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.282204</v>
+        <v>12.95234266666667</v>
       </c>
       <c r="H9">
-        <v>15.846612</v>
+        <v>38.857028</v>
       </c>
       <c r="I9">
-        <v>0.3163636775260238</v>
+        <v>0.5608901889757016</v>
       </c>
       <c r="J9">
-        <v>0.3163636775260238</v>
+        <v>0.5608901889757018</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>95.998284</v>
       </c>
       <c r="O9">
-        <v>0.08531391482826334</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="P9">
-        <v>0.08531391482826335</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="Q9">
-        <v>169.027506579312</v>
+        <v>414.467556593328</v>
       </c>
       <c r="R9">
-        <v>1521.247559213808</v>
+        <v>3730.208009339952</v>
       </c>
       <c r="S9">
-        <v>0.02699022383921137</v>
+        <v>0.3318457235680622</v>
       </c>
       <c r="T9">
-        <v>0.02699022383921137</v>
+        <v>0.3318457235680624</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.282204</v>
+        <v>12.95234266666667</v>
       </c>
       <c r="H10">
-        <v>15.846612</v>
+        <v>38.857028</v>
       </c>
       <c r="I10">
-        <v>0.3163636775260238</v>
+        <v>0.5608901889757016</v>
       </c>
       <c r="J10">
-        <v>0.3163636775260238</v>
+        <v>0.5608901889757018</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>81.69901900000001</v>
+        <v>14.59882166666667</v>
       </c>
       <c r="N10">
-        <v>245.097057</v>
+        <v>43.796465</v>
       </c>
       <c r="O10">
-        <v>0.2178183668945166</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="P10">
-        <v>0.2178183668945167</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="Q10">
-        <v>431.5508849578761</v>
+        <v>189.0889407562244</v>
       </c>
       <c r="R10">
-        <v>3883.957964620884</v>
+        <v>1701.80046680602</v>
       </c>
       <c r="S10">
-        <v>0.06890981958346201</v>
+        <v>0.1513950980378807</v>
       </c>
       <c r="T10">
-        <v>0.06890981958346201</v>
+        <v>0.1513950980378807</v>
       </c>
     </row>
   </sheetData>
